--- a/resources/Font 2.xlsx
+++ b/resources/Font 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="0" windowWidth="25005" windowHeight="14235"/>
+    <workbookView xWindow="12090" yWindow="0" windowWidth="25005" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -455,7 +455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CC80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.7109375" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3790,6 +3790,7 @@
       <c r="O54" s="6"/>
       <c r="P54" s="18"/>
       <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
       <c r="S54" s="5"/>
       <c r="T54" s="6"/>
       <c r="U54" s="18"/>
@@ -3846,6 +3847,7 @@
       <c r="N55" s="2"/>
       <c r="O55" s="8"/>
       <c r="P55" s="16"/>
+      <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
       <c r="S55" s="2"/>
       <c r="T55" s="8"/>
